--- a/TestApp/bin/Debug/net6.0/Resources/rrf_teszt.xlsx
+++ b/TestApp/bin/Debug/net6.0/Resources/rrf_teszt.xlsx
@@ -5,12 +5,12 @@
   <workbookPr updateLinks="never" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felhasználó\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gdomj\source\repos\ExcelLoaderToolForAccounting\TestApp\bin\Debug\net6.0\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B5C85D-4A82-407A-95C6-9CDACB909804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA147124-DACC-4384-B601-1827306D0D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-45" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Terv-tény" sheetId="2" r:id="rId1"/>
@@ -13817,7 +13817,7 @@
       <selection activeCell="H12" sqref="H12"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
-      <autoFilter ref="A3:L77" xr:uid="{45470FCE-DAA7-4FBC-B1BE-B8C81F2DBE52}"/>
+      <autoFilter ref="A3:L77" xr:uid="{25633CEA-EAA3-4F51-A5A0-A88B4FC40698}"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="5">
@@ -31947,9 +31947,9 @@
   <sheetPr codeName="Munka2"/>
   <dimension ref="A1:AB20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L5" sqref="L5"/>
+      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -33014,7 +33014,7 @@
       <selection pane="bottomLeft" activeCell="H77" sqref="H77"/>
       <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.35433070866141736" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="9" scale="53" orientation="portrait" r:id="rId1"/>
-      <autoFilter ref="A4:AV400" xr:uid="{5AFFAB88-3FB6-4120-ABCF-90DFF735365D}">
+      <autoFilter ref="A4:AV400" xr:uid="{5AFC0C04-75FB-41C2-B51E-F7D0439F8612}">
         <filterColumn colId="6">
           <filters>
             <filter val="2019.06"/>
@@ -36772,7 +36772,7 @@
       <selection activeCell="L44" sqref="L44"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-      <autoFilter ref="A41:N455" xr:uid="{48CBA8F8-4CCE-43F9-81FB-F4EB44779097}"/>
+      <autoFilter ref="A41:N455" xr:uid="{ABF0025B-BA04-41FF-9769-509F452827AF}"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="2">
@@ -51719,7 +51719,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="935" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A935" s="219" t="s">
         <v>801</v>
       </c>
@@ -51740,7 +51740,7 @@
     <row r="939" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A939" s="220"/>
     </row>
-    <row r="940" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A940" s="219" t="s">
         <v>804</v>
       </c>
